--- a/sample-data/test.xlsx
+++ b/sample-data/test.xlsx
@@ -5,11 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="test" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,24 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">SH1HDR1</t>
+    <t xml:space="preserve">Room1</t>
   </si>
   <si>
-    <t xml:space="preserve">SH1HDR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SH2HDR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SH2HDR2</t>
+    <t xml:space="preserve">Room2</t>
   </si>
 </sst>
 </file>
@@ -134,53 +121,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>720</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
+      <c r="B2" s="0" t="n">
+        <v>21</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>16</v>
+      <c r="C2" s="0" t="n">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -192,69 +166,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>